--- a/cpu_affinity/fio_logs/archive/[cli 버전]merged_results.xlsx
+++ b/cpu_affinity/fio_logs/archive/[cli 버전]merged_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehddu\ldy\cpu_affinity\fio_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehddu\ldy\cpu_affinity\fio_logs\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DADB715-51E5-4CA5-B245-0426960B37D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22309ACD-900E-4703-8CF2-3B5DE478BDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="randread" sheetId="1" r:id="rId1"/>
@@ -159,11 +159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1299,69 +1299,19 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>read!$AR$2:$AW$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>read!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8AC-40F4-9856-8425A01400AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+                  <c:v>ext4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1386,6 +1336,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>read!$AF$2:$AK$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>read!$AR$3:$AW$3</c:f>
@@ -1422,7 +1399,18 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>read!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1447,6 +1435,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>read!$AF$2:$AK$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>read!$AR$4:$AW$4</c:f>
@@ -1483,7 +1498,18 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>read!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1508,6 +1534,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>read!$AF$2:$AK$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>read!$AR$5:$AW$5</c:f>
@@ -1562,6 +1615,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7973,69 +8027,19 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>read!$B$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>read!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A97-4771-9F4E-9E3B52AC16F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+                  <c:v>ext4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -8060,6 +8064,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>read!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>read!$B$3:$G$3</c:f>
@@ -8096,7 +8127,18 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>read!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -8121,6 +8163,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>read!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>read!$B$4:$G$4</c:f>
@@ -8157,7 +8226,18 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>read!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -8182,6 +8262,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>read!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>read!$B$5:$G$5</c:f>
@@ -8236,6 +8343,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -18021,11 +18129,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18059,124 +18167,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="4" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="4" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="4" t="s">
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="4" t="s">
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="4" t="s">
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="4" t="s">
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="4" t="s">
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="4" t="s">
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="4" t="s">
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -19202,10 +19310,17 @@
       </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="AR7" s="6"/>
+      <c r="AR7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="BV1:CA1"/>
@@ -19214,13 +19329,6 @@
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19232,11 +19340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19268,124 +19376,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="4" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="4" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="4" t="s">
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="4" t="s">
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="4" t="s">
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="4" t="s">
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="4" t="s">
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="4" t="s">
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="4" t="s">
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -20412,6 +20520,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="BV1:CA1"/>
@@ -20420,13 +20535,6 @@
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20439,10 +20547,10 @@
   <dimension ref="A1:CG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20474,124 +20582,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="4" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="4" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="4" t="s">
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="4" t="s">
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="4" t="s">
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="4" t="s">
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="4" t="s">
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="4" t="s">
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="4" t="s">
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -21618,6 +21726,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="BV1:CA1"/>
@@ -21626,13 +21741,6 @@
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21679,124 +21787,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="4" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="4" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="4" t="s">
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="4" t="s">
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="4" t="s">
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="4" t="s">
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="4" t="s">
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="4" t="s">
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="4" t="s">
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -22823,6 +22931,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="BV1:CA1"/>
@@ -22831,13 +22946,6 @@
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AR1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
